--- a/testngdemo2023/externalresources/Canada411Input.xlsx
+++ b/testngdemo2023/externalresources/Canada411Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\metlifews\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\metlifews\testngdemo2023\externalresources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5106B0EA-217D-4913-A74A-EB621161147A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8BED76-A019-433F-8EEB-907B460BF639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -909,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,28 +960,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1028,21 +1028,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FDD7F7A7EF585448B48D0C2488F47AD2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6e3f7292607a2822c193495168e516a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6833666c-886a-42d0-bc9c-83af8f222559" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="36efe3890a49755390aaf87eb97bd9c2" ns2:_="">
     <xsd:import namespace="6833666c-886a-42d0-bc9c-83af8f222559"/>
@@ -1204,24 +1189,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC32FDD-A88E-4872-9D27-3381E671491A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D269DEF-D0BB-4F9C-886C-E5185662B840}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F148A08B-2337-4C03-83CF-8C9B092AB64C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1237,4 +1220,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D269DEF-D0BB-4F9C-886C-E5185662B840}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC32FDD-A88E-4872-9D27-3381E671491A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>